--- a/datosInstagram.xlsx
+++ b/datosInstagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:K395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,16 @@
           <t>C7A</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DatosEstimados</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DatosTrasRed</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +518,12 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +553,12 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -566,6 +588,12 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -595,6 +623,12 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +658,12 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -653,6 +693,12 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -682,6 +728,12 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -711,6 +763,12 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -740,6 +798,12 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -769,6 +833,12 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -798,6 +868,12 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -827,6 +903,12 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -856,6 +938,12 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -885,6 +973,12 @@
       <c r="I15" t="n">
         <v>1</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -914,6 +1008,12 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -943,6 +1043,12 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -972,6 +1078,12 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1001,6 +1113,12 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1030,6 +1148,12 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1059,6 +1183,12 @@
       <c r="I21" t="n">
         <v>1</v>
       </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1088,6 +1218,12 @@
       <c r="I22" t="n">
         <v>1</v>
       </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1117,6 +1253,12 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1146,6 +1288,12 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1175,6 +1323,12 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1204,6 +1358,12 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1233,6 +1393,12 @@
       <c r="I27" t="n">
         <v>1</v>
       </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1262,6 +1428,12 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1291,6 +1463,12 @@
       <c r="I29" t="n">
         <v>1</v>
       </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1320,6 +1498,12 @@
       <c r="I30" t="n">
         <v>1</v>
       </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1349,6 +1533,12 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1378,6 +1568,12 @@
       <c r="I32" t="n">
         <v>1</v>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1407,6 +1603,12 @@
       <c r="I33" t="n">
         <v>1</v>
       </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1436,6 +1638,12 @@
       <c r="I34" t="n">
         <v>1</v>
       </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1465,6 +1673,12 @@
       <c r="I35" t="n">
         <v>1</v>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1494,6 +1708,12 @@
       <c r="I36" t="n">
         <v>1</v>
       </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1523,6 +1743,12 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1552,6 +1778,12 @@
       <c r="I38" t="n">
         <v>1</v>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1581,6 +1813,12 @@
       <c r="I39" t="n">
         <v>1</v>
       </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1610,6 +1848,12 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1639,6 +1883,12 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1668,6 +1918,12 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1697,6 +1953,12 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1726,6 +1988,12 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1755,6 +2023,12 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1784,6 +2058,12 @@
       <c r="I46" t="n">
         <v>1</v>
       </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1813,6 +2093,12 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1842,6 +2128,12 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1871,6 +2163,12 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1900,6 +2198,12 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1929,6 +2233,12 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1958,6 +2268,12 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1987,6 +2303,12 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2016,6 +2338,12 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2045,6 +2373,12 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2074,6 +2408,12 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2103,6 +2443,12 @@
       <c r="I57" t="n">
         <v>1</v>
       </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2132,6 +2478,12 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2161,6 +2513,12 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2190,6 +2548,12 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2219,6 +2583,12 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2248,6 +2618,12 @@
       <c r="I62" t="n">
         <v>1</v>
       </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2277,6 +2653,12 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2306,6 +2688,12 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2335,6 +2723,12 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2364,6 +2758,12 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2393,6 +2793,12 @@
       <c r="I67" t="n">
         <v>1</v>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2422,6 +2828,12 @@
       <c r="I68" t="n">
         <v>1</v>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2451,6 +2863,12 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2480,6 +2898,12 @@
       <c r="I70" t="n">
         <v>1</v>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2509,6 +2933,12 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2538,6 +2968,12 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2567,6 +3003,12 @@
       <c r="I73" t="n">
         <v>1</v>
       </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2596,6 +3038,12 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2625,6 +3073,12 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2654,6 +3108,12 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2683,6 +3143,12 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2712,6 +3178,12 @@
       <c r="I78" t="n">
         <v>1</v>
       </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2741,6 +3213,12 @@
       <c r="I79" t="n">
         <v>1</v>
       </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2770,6 +3248,12 @@
       <c r="I80" t="n">
         <v>1</v>
       </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2799,6 +3283,12 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2828,6 +3318,12 @@
       <c r="I82" t="n">
         <v>1</v>
       </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2857,6 +3353,12 @@
       <c r="I83" t="n">
         <v>1</v>
       </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2886,6 +3388,12 @@
       <c r="I84" t="n">
         <v>1</v>
       </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2915,6 +3423,12 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2944,6 +3458,12 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2973,6 +3493,12 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3002,6 +3528,12 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3031,6 +3563,12 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3060,6 +3598,12 @@
       <c r="I90" t="n">
         <v>1</v>
       </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3089,6 +3633,12 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3118,6 +3668,12 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3147,6 +3703,12 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3176,6 +3738,12 @@
       <c r="I94" t="n">
         <v>0</v>
       </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3205,6 +3773,12 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3234,6 +3808,12 @@
       <c r="I96" t="n">
         <v>1</v>
       </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3263,6 +3843,12 @@
       <c r="I97" t="n">
         <v>1</v>
       </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3292,6 +3878,12 @@
       <c r="I98" t="n">
         <v>1</v>
       </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3321,6 +3913,12 @@
       <c r="I99" t="n">
         <v>1</v>
       </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3350,6 +3948,12 @@
       <c r="I100" t="n">
         <v>1</v>
       </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3379,6 +3983,12 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3408,6 +4018,12 @@
       <c r="I102" t="n">
         <v>0</v>
       </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3437,6 +4053,12 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3466,6 +4088,12 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3495,6 +4123,12 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3524,6 +4158,12 @@
       <c r="I106" t="n">
         <v>0</v>
       </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3553,6 +4193,12 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3582,6 +4228,12 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3611,6 +4263,12 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3640,6 +4298,12 @@
       <c r="I110" t="n">
         <v>1</v>
       </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3669,6 +4333,12 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3698,6 +4368,12 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3727,6 +4403,12 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3756,6 +4438,12 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3785,6 +4473,12 @@
       <c r="I115" t="n">
         <v>1</v>
       </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3814,6 +4508,12 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3843,6 +4543,12 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3872,6 +4578,12 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3901,6 +4613,12 @@
       <c r="I119" t="n">
         <v>1</v>
       </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3930,6 +4648,12 @@
       <c r="I120" t="n">
         <v>1</v>
       </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3959,6 +4683,12 @@
       <c r="I121" t="n">
         <v>1</v>
       </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3988,6 +4718,12 @@
       <c r="I122" t="n">
         <v>1</v>
       </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4017,6 +4753,12 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4046,6 +4788,12 @@
       <c r="I124" t="n">
         <v>1</v>
       </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4075,6 +4823,12 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4104,6 +4858,12 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4133,6 +4893,12 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4162,6 +4928,12 @@
       <c r="I128" t="n">
         <v>1</v>
       </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4191,6 +4963,12 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4220,6 +4998,12 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4249,6 +5033,12 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4278,6 +5068,12 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4307,6 +5103,12 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4336,6 +5138,12 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4365,6 +5173,12 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4394,6 +5208,12 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4423,6 +5243,12 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4452,6 +5278,12 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4481,6 +5313,12 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4510,6 +5348,12 @@
       <c r="I140" t="n">
         <v>1</v>
       </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4539,6 +5383,12 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4568,6 +5418,12 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4597,6 +5453,12 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4626,6 +5488,12 @@
       <c r="I144" t="n">
         <v>1</v>
       </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4655,6 +5523,12 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4684,6 +5558,12 @@
       <c r="I146" t="n">
         <v>1</v>
       </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4713,6 +5593,12 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4742,6 +5628,12 @@
       <c r="I148" t="n">
         <v>1</v>
       </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4771,6 +5663,12 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4800,6 +5698,12 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4829,6 +5733,12 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4858,6 +5768,12 @@
       <c r="I152" t="n">
         <v>1</v>
       </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4887,6 +5803,12 @@
       <c r="I153" t="n">
         <v>1</v>
       </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4916,6 +5838,12 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4945,6 +5873,12 @@
       <c r="I155" t="n">
         <v>1</v>
       </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4974,6 +5908,12 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5003,6 +5943,12 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5032,6 +5978,12 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5061,6 +6013,12 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5090,6 +6048,12 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5119,6 +6083,12 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5148,6 +6118,12 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5177,6 +6153,12 @@
       <c r="I163" t="n">
         <v>1</v>
       </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5206,6 +6188,12 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5235,6 +6223,12 @@
       <c r="I165" t="n">
         <v>1</v>
       </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5264,6 +6258,12 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5293,6 +6293,12 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5322,6 +6328,12 @@
       <c r="I168" t="n">
         <v>1</v>
       </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5351,6 +6363,12 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5380,6 +6398,12 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5409,6 +6433,12 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5438,6 +6468,12 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5467,6 +6503,12 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5496,6 +6538,12 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5525,6 +6573,12 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5554,6 +6608,12 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5583,6 +6643,12 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5612,6 +6678,12 @@
       <c r="I178" t="n">
         <v>1</v>
       </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5641,6 +6713,12 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5670,6 +6748,12 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5699,6 +6783,12 @@
       <c r="I181" t="n">
         <v>1</v>
       </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5728,6 +6818,12 @@
       <c r="I182" t="n">
         <v>1</v>
       </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5757,6 +6853,12 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5786,6 +6888,12 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5815,6 +6923,12 @@
       <c r="I185" t="n">
         <v>1</v>
       </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5844,6 +6958,12 @@
       <c r="I186" t="n">
         <v>1</v>
       </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5873,6 +6993,12 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5902,6 +7028,12 @@
       <c r="I188" t="n">
         <v>1</v>
       </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5931,6 +7063,12 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5960,6 +7098,12 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5989,6 +7133,12 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6018,6 +7168,12 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6047,6 +7203,12 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6076,6 +7238,12 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6105,6 +7273,12 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6134,6 +7308,12 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6163,6 +7343,12 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6192,6 +7378,12 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6221,6 +7413,12 @@
       <c r="I199" t="n">
         <v>1</v>
       </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6250,6 +7448,12 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6279,6 +7483,12 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6308,6 +7518,12 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6337,6 +7553,12 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6366,6 +7588,12 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6395,6 +7623,12 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6424,6 +7658,12 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6453,6 +7693,12 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6482,6 +7728,12 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6511,6 +7763,12 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6540,6 +7798,12 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6569,6 +7833,12 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6598,6 +7868,12 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6627,6 +7903,12 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6656,6 +7938,12 @@
       <c r="I214" t="n">
         <v>1</v>
       </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6685,6 +7973,12 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6714,6 +8008,12 @@
       <c r="I216" t="n">
         <v>1</v>
       </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6743,6 +8043,12 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6772,6 +8078,12 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6801,6 +8113,12 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6830,6 +8148,12 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6859,6 +8183,12 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6888,6 +8218,12 @@
       <c r="I222" t="n">
         <v>1</v>
       </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6917,6 +8253,12 @@
       <c r="I223" t="n">
         <v>1</v>
       </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6946,6 +8288,12 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6975,6 +8323,12 @@
       <c r="I225" t="n">
         <v>1</v>
       </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7004,6 +8358,12 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7033,6 +8393,12 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7062,6 +8428,12 @@
       <c r="I228" t="n">
         <v>1</v>
       </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7091,6 +8463,12 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7120,6 +8498,12 @@
       <c r="I230" t="n">
         <v>1</v>
       </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7149,6 +8533,12 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7178,6 +8568,12 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7207,6 +8603,12 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7236,6 +8638,12 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7265,6 +8673,12 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7294,6 +8708,12 @@
       <c r="I236" t="n">
         <v>1</v>
       </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7323,6 +8743,12 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7352,6 +8778,12 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7381,6 +8813,12 @@
       <c r="I239" t="n">
         <v>1</v>
       </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7410,6 +8848,12 @@
       <c r="I240" t="n">
         <v>1</v>
       </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7439,6 +8883,12 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7468,6 +8918,12 @@
       <c r="I242" t="n">
         <v>1</v>
       </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7497,6 +8953,12 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7526,6 +8988,12 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7555,6 +9023,12 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7584,6 +9058,12 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7613,6 +9093,12 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7642,6 +9128,12 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7671,6 +9163,12 @@
       <c r="I249" t="n">
         <v>1</v>
       </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -7700,6 +9198,12 @@
       <c r="I250" t="n">
         <v>1</v>
       </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -7729,6 +9233,12 @@
       <c r="I251" t="n">
         <v>1</v>
       </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7758,6 +9268,12 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7787,6 +9303,12 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7816,6 +9338,12 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7845,6 +9373,12 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7874,6 +9408,12 @@
       <c r="I256" t="n">
         <v>1</v>
       </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7903,6 +9443,12 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7932,6 +9478,12 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7961,6 +9513,12 @@
       <c r="I259" t="n">
         <v>1</v>
       </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7990,6 +9548,12 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8019,6 +9583,12 @@
       <c r="I261" t="n">
         <v>1</v>
       </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8048,6 +9618,12 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8077,6 +9653,12 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8106,6 +9688,12 @@
       <c r="I264" t="n">
         <v>1</v>
       </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8135,6 +9723,12 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8164,6 +9758,12 @@
       <c r="I266" t="n">
         <v>1</v>
       </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8193,6 +9793,12 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8222,6 +9828,12 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8251,6 +9863,12 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8280,6 +9898,12 @@
       <c r="I270" t="n">
         <v>1</v>
       </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8309,6 +9933,12 @@
       <c r="I271" t="n">
         <v>1</v>
       </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8338,6 +9968,12 @@
       <c r="I272" t="n">
         <v>1</v>
       </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8367,6 +10003,12 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8396,6 +10038,12 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8425,6 +10073,12 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8454,6 +10108,12 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8483,6 +10143,12 @@
       <c r="I277" t="n">
         <v>1</v>
       </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8512,6 +10178,12 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8541,6 +10213,12 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8570,6 +10248,12 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8599,6 +10283,12 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8628,6 +10318,12 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8657,6 +10353,12 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -8686,6 +10388,12 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -8715,6 +10423,12 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -8744,6 +10458,12 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -8773,6 +10493,12 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -8802,6 +10528,12 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -8831,6 +10563,12 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -8860,6 +10598,12 @@
       <c r="I290" t="n">
         <v>0</v>
       </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8889,6 +10633,12 @@
       <c r="I291" t="n">
         <v>0</v>
       </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8918,6 +10668,12 @@
       <c r="I292" t="n">
         <v>0</v>
       </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8947,6 +10703,12 @@
       <c r="I293" t="n">
         <v>0</v>
       </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -8976,6 +10738,12 @@
       <c r="I294" t="n">
         <v>1</v>
       </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -9005,6 +10773,12 @@
       <c r="I295" t="n">
         <v>0</v>
       </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -9034,6 +10808,12 @@
       <c r="I296" t="n">
         <v>0</v>
       </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -9063,6 +10843,12 @@
       <c r="I297" t="n">
         <v>0</v>
       </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -9092,6 +10878,12 @@
       <c r="I298" t="n">
         <v>0</v>
       </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -9121,6 +10913,12 @@
       <c r="I299" t="n">
         <v>1</v>
       </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -9150,6 +10948,12 @@
       <c r="I300" t="n">
         <v>0</v>
       </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -9179,6 +10983,12 @@
       <c r="I301" t="n">
         <v>1</v>
       </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -9208,6 +11018,12 @@
       <c r="I302" t="n">
         <v>1</v>
       </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -9237,6 +11053,12 @@
       <c r="I303" t="n">
         <v>0</v>
       </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -9266,6 +11088,12 @@
       <c r="I304" t="n">
         <v>0</v>
       </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -9295,6 +11123,12 @@
       <c r="I305" t="n">
         <v>1</v>
       </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9324,6 +11158,12 @@
       <c r="I306" t="n">
         <v>0</v>
       </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9353,6 +11193,12 @@
       <c r="I307" t="n">
         <v>0</v>
       </c>
+      <c r="J307" t="n">
+        <v>1</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -9382,6 +11228,12 @@
       <c r="I308" t="n">
         <v>0</v>
       </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -9411,6 +11263,12 @@
       <c r="I309" t="n">
         <v>0</v>
       </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -9440,6 +11298,12 @@
       <c r="I310" t="n">
         <v>0</v>
       </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -9469,6 +11333,12 @@
       <c r="I311" t="n">
         <v>0</v>
       </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -9498,6 +11368,12 @@
       <c r="I312" t="n">
         <v>1</v>
       </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -9527,6 +11403,12 @@
       <c r="I313" t="n">
         <v>0</v>
       </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -9556,6 +11438,12 @@
       <c r="I314" t="n">
         <v>0</v>
       </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -9585,6 +11473,12 @@
       <c r="I315" t="n">
         <v>0</v>
       </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -9614,6 +11508,12 @@
       <c r="I316" t="n">
         <v>1</v>
       </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -9643,6 +11543,12 @@
       <c r="I317" t="n">
         <v>1</v>
       </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -9672,6 +11578,12 @@
       <c r="I318" t="n">
         <v>0</v>
       </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -9701,6 +11613,12 @@
       <c r="I319" t="n">
         <v>0</v>
       </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -9730,6 +11648,12 @@
       <c r="I320" t="n">
         <v>0</v>
       </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -9759,6 +11683,12 @@
       <c r="I321" t="n">
         <v>1</v>
       </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -9788,6 +11718,12 @@
       <c r="I322" t="n">
         <v>0</v>
       </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -9817,6 +11753,12 @@
       <c r="I323" t="n">
         <v>0</v>
       </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -9846,6 +11788,12 @@
       <c r="I324" t="n">
         <v>1</v>
       </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -9875,6 +11823,12 @@
       <c r="I325" t="n">
         <v>0</v>
       </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -9904,6 +11858,12 @@
       <c r="I326" t="n">
         <v>0</v>
       </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -9933,6 +11893,12 @@
       <c r="I327" t="n">
         <v>0</v>
       </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -9962,6 +11928,12 @@
       <c r="I328" t="n">
         <v>0</v>
       </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -9991,6 +11963,12 @@
       <c r="I329" t="n">
         <v>0</v>
       </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -10020,6 +11998,12 @@
       <c r="I330" t="n">
         <v>0</v>
       </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -10049,6 +12033,12 @@
       <c r="I331" t="n">
         <v>0</v>
       </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -10078,6 +12068,12 @@
       <c r="I332" t="n">
         <v>0</v>
       </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -10107,6 +12103,12 @@
       <c r="I333" t="n">
         <v>0</v>
       </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -10136,6 +12138,12 @@
       <c r="I334" t="n">
         <v>0</v>
       </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -10165,6 +12173,12 @@
       <c r="I335" t="n">
         <v>1</v>
       </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -10194,6 +12208,12 @@
       <c r="I336" t="n">
         <v>0</v>
       </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -10223,6 +12243,12 @@
       <c r="I337" t="n">
         <v>1</v>
       </c>
+      <c r="J337" t="n">
+        <v>1</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -10252,6 +12278,12 @@
       <c r="I338" t="n">
         <v>0</v>
       </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -10281,6 +12313,12 @@
       <c r="I339" t="n">
         <v>0</v>
       </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -10310,6 +12348,12 @@
       <c r="I340" t="n">
         <v>1</v>
       </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -10339,6 +12383,12 @@
       <c r="I341" t="n">
         <v>1</v>
       </c>
+      <c r="J341" t="n">
+        <v>1</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -10368,6 +12418,12 @@
       <c r="I342" t="n">
         <v>0</v>
       </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -10397,6 +12453,12 @@
       <c r="I343" t="n">
         <v>1</v>
       </c>
+      <c r="J343" t="n">
+        <v>1</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -10426,6 +12488,12 @@
       <c r="I344" t="n">
         <v>0</v>
       </c>
+      <c r="J344" t="n">
+        <v>1</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -10455,6 +12523,12 @@
       <c r="I345" t="n">
         <v>1</v>
       </c>
+      <c r="J345" t="n">
+        <v>1</v>
+      </c>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -10484,6 +12558,12 @@
       <c r="I346" t="n">
         <v>0</v>
       </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -10513,6 +12593,12 @@
       <c r="I347" t="n">
         <v>1</v>
       </c>
+      <c r="J347" t="n">
+        <v>1</v>
+      </c>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -10542,6 +12628,12 @@
       <c r="I348" t="n">
         <v>0</v>
       </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -10571,6 +12663,12 @@
       <c r="I349" t="n">
         <v>0</v>
       </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -10600,6 +12698,12 @@
       <c r="I350" t="n">
         <v>1</v>
       </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -10629,6 +12733,12 @@
       <c r="I351" t="n">
         <v>1</v>
       </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -10658,6 +12768,12 @@
       <c r="I352" t="n">
         <v>1</v>
       </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -10687,6 +12803,12 @@
       <c r="I353" t="n">
         <v>1</v>
       </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -10716,6 +12838,12 @@
       <c r="I354" t="n">
         <v>0</v>
       </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -10745,6 +12873,12 @@
       <c r="I355" t="n">
         <v>0</v>
       </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -10774,6 +12908,12 @@
       <c r="I356" t="n">
         <v>1</v>
       </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -10803,6 +12943,12 @@
       <c r="I357" t="n">
         <v>0</v>
       </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -10832,6 +12978,12 @@
       <c r="I358" t="n">
         <v>1</v>
       </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -10861,6 +13013,12 @@
       <c r="I359" t="n">
         <v>0</v>
       </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -10890,6 +13048,12 @@
       <c r="I360" t="n">
         <v>0</v>
       </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -10919,6 +13083,12 @@
       <c r="I361" t="n">
         <v>0</v>
       </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -10948,6 +13118,12 @@
       <c r="I362" t="n">
         <v>1</v>
       </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -10977,6 +13153,12 @@
       <c r="I363" t="n">
         <v>0</v>
       </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -11006,6 +13188,12 @@
       <c r="I364" t="n">
         <v>0</v>
       </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -11035,6 +13223,12 @@
       <c r="I365" t="n">
         <v>0</v>
       </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -11064,6 +13258,12 @@
       <c r="I366" t="n">
         <v>0</v>
       </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -11093,6 +13293,12 @@
       <c r="I367" t="n">
         <v>0</v>
       </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -11122,6 +13328,12 @@
       <c r="I368" t="n">
         <v>0</v>
       </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -11151,6 +13363,12 @@
       <c r="I369" t="n">
         <v>1</v>
       </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -11180,6 +13398,12 @@
       <c r="I370" t="n">
         <v>1</v>
       </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -11209,6 +13433,12 @@
       <c r="I371" t="n">
         <v>1</v>
       </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -11238,6 +13468,12 @@
       <c r="I372" t="n">
         <v>0</v>
       </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -11267,6 +13503,12 @@
       <c r="I373" t="n">
         <v>1</v>
       </c>
+      <c r="J373" t="n">
+        <v>0</v>
+      </c>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -11296,6 +13538,12 @@
       <c r="I374" t="n">
         <v>1</v>
       </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -11325,6 +13573,12 @@
       <c r="I375" t="n">
         <v>0</v>
       </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -11354,6 +13608,12 @@
       <c r="I376" t="n">
         <v>0</v>
       </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -11383,6 +13643,12 @@
       <c r="I377" t="n">
         <v>1</v>
       </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -11412,6 +13678,12 @@
       <c r="I378" t="n">
         <v>1</v>
       </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -11441,6 +13713,12 @@
       <c r="I379" t="n">
         <v>0</v>
       </c>
+      <c r="J379" t="n">
+        <v>0</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -11470,6 +13748,12 @@
       <c r="I380" t="n">
         <v>1</v>
       </c>
+      <c r="J380" t="n">
+        <v>1</v>
+      </c>
+      <c r="K380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -11499,6 +13783,12 @@
       <c r="I381" t="n">
         <v>0</v>
       </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -11528,6 +13818,12 @@
       <c r="I382" t="n">
         <v>0</v>
       </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -11557,6 +13853,12 @@
       <c r="I383" t="n">
         <v>0</v>
       </c>
+      <c r="J383" t="n">
+        <v>1</v>
+      </c>
+      <c r="K383" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -11586,6 +13888,12 @@
       <c r="I384" t="n">
         <v>0</v>
       </c>
+      <c r="J384" t="n">
+        <v>0</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -11615,6 +13923,12 @@
       <c r="I385" t="n">
         <v>1</v>
       </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -11644,6 +13958,12 @@
       <c r="I386" t="n">
         <v>1</v>
       </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -11673,6 +13993,12 @@
       <c r="I387" t="n">
         <v>0</v>
       </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -11702,6 +14028,12 @@
       <c r="I388" t="n">
         <v>1</v>
       </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -11731,6 +14063,12 @@
       <c r="I389" t="n">
         <v>0</v>
       </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -11760,6 +14098,12 @@
       <c r="I390" t="n">
         <v>0</v>
       </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -11789,6 +14133,12 @@
       <c r="I391" t="n">
         <v>0</v>
       </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -11818,6 +14168,12 @@
       <c r="I392" t="n">
         <v>0</v>
       </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -11847,6 +14203,12 @@
       <c r="I393" t="n">
         <v>1</v>
       </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -11876,6 +14238,12 @@
       <c r="I394" t="n">
         <v>0</v>
       </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -11903,6 +14271,12 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
+        <v>1</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1</v>
+      </c>
+      <c r="K395" t="n">
         <v>1</v>
       </c>
     </row>
